--- a/Mid-term.xlsx
+++ b/Mid-term.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juric\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129A4606-2502-48BF-A2EA-961D0E3797A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0A2EB1-324F-4DBF-B036-1E760137FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3D52795-D0F1-4781-BF0C-6CD483DD91AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Keypoints on preceeding vehicle" sheetId="1" r:id="rId1"/>
-    <sheet name="MP.Matches for all combinations" sheetId="2" r:id="rId2"/>
+    <sheet name="MP.7" sheetId="1" r:id="rId1"/>
+    <sheet name="MP.8 &amp; MP.9" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -4641,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950CC968-A2F7-4C67-97B7-805D84FF5755}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:A15"/>
     </sheetView>
   </sheetViews>
@@ -5075,8 +5075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3373A11B-87AE-44DA-B049-C3BB9C7CAE26}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11:Z12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
